--- a/modelos_faltantes.xlsx
+++ b/modelos_faltantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>self_hint</t>
+          <t>hypothesis_testing</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -468,12 +468,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ollama_cogito_70b</t>
+          <t>ollama_cogito_8b</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>hypothesis_testing</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -483,12 +483,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ollama_cogito_70b</t>
+          <t>ollama_cogito_8b</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>progressive_hint</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -498,12 +498,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ollama_cogito_70b</t>
+          <t>ollama_cogito_8b</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>hypothesis_testing</t>
+          <t>progressive_rectification</t>
         </is>
       </c>
       <c r="C5" t="b">
@@ -518,7 +518,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zeroshot</t>
+          <t>self_hint</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>self_hint</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -543,12 +543,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ollama_cogito_8b</t>
+          <t>ollama_deepseek_r1_70b</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>hypothesis_testing</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -558,12 +558,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ollama_cogito_8b</t>
+          <t>ollama_deepseek_r1_70b</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>progressive_hint</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -573,12 +573,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ollama_cogito_8b</t>
+          <t>ollama_deepseek_r1_70b</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>hypothesis_testing</t>
+          <t>progressive_rectification</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -608,7 +608,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -618,12 +618,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ollama_deepseek_r1_70b</t>
+          <t>ollama_deepseek_r1_8b</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>hypothesis_testing</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -633,12 +633,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ollama_deepseek_r1_70b</t>
+          <t>ollama_deepseek_r1_8b</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>hypothesis_testing</t>
+          <t>progressive_hint</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -653,7 +653,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>self_hint</t>
+          <t>progressive_rectification</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -668,7 +668,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>self_hint</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -683,7 +683,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ollama_deepseek_r1_8b</t>
+          <t>ollama_foundation_sec_8b</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -708,12 +708,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ollama_falcon3_10b</t>
+          <t>ollama_foundation_sec_8b</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>self_hint</t>
+          <t>progressive_hint</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -723,12 +723,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ollama_falcon3_10b</t>
+          <t>ollama_foundation_sec_8b</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>progressive_rectification</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -738,12 +738,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ollama_falcon3_10b</t>
+          <t>ollama_foundation_sec_8b</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>self_hint</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -753,12 +753,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ollama_falcon3_10b</t>
+          <t>ollama_foundation_sec_8b</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>hypothesis_testing</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -768,12 +768,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ollama_falcon3_7b</t>
+          <t>ollama_gemma3_9b</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>self_hint</t>
+          <t>hypothesis_testing</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ollama_falcon3_7b</t>
+          <t>ollama_gemma3_9b</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ollama_falcon3_7b</t>
+          <t>ollama_gemma3_9b</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -813,12 +813,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ollama_falcon3_7b</t>
+          <t>ollama_gemma3_9b</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>hypothesis_testing</t>
+          <t>self_hint</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -828,12 +828,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ollama_foundation_sec_8b</t>
+          <t>ollama_gemma3_9b</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>self_hint</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C27" t="b">
@@ -843,12 +843,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ollama_foundation_sec_8b</t>
+          <t>ollama_gptoss_20b</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>hypothesis_testing</t>
         </is>
       </c>
       <c r="C28" t="b">
@@ -858,12 +858,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ollama_foundation_sec_8b</t>
+          <t>ollama_gptoss_20b</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>progressive_hint</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -873,12 +873,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ollama_foundation_sec_8b</t>
+          <t>ollama_gptoss_20b</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>hypothesis_testing</t>
+          <t>progressive_rectification</t>
         </is>
       </c>
       <c r="C30" t="b">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ollama_gemma3_27b</t>
+          <t>ollama_gptoss_20b</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -903,12 +903,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ollama_gemma3_27b</t>
+          <t>ollama_gptoss_20b</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C32" t="b">
@@ -918,12 +918,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ollama_gemma3_27b</t>
+          <t>ollama_granite3_2_8b</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>hypothesis_testing</t>
         </is>
       </c>
       <c r="C33" t="b">
@@ -933,12 +933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ollama_gemma3_27b</t>
+          <t>ollama_granite3_2_8b</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>hypothesis_testing</t>
+          <t>progressive_hint</t>
         </is>
       </c>
       <c r="C34" t="b">
@@ -948,12 +948,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ollama_gemma3_9b</t>
+          <t>ollama_granite3_2_8b</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>zeroshot</t>
+          <t>progressive_rectification</t>
         </is>
       </c>
       <c r="C35" t="b">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ollama_gemma3_9b</t>
+          <t>ollama_granite3_2_8b</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -978,12 +978,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ollama_gemma3_9b</t>
+          <t>ollama_granite3_2_8b</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C37" t="b">
@@ -993,12 +993,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ollama_gemma3_9b</t>
+          <t>ollama_llama3_1_70b</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>hypothesis_testing</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -1008,12 +1008,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ollama_gemma3_9b</t>
+          <t>ollama_llama3_1_70b</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>hypothesis_testing</t>
+          <t>progressive_hint</t>
         </is>
       </c>
       <c r="C39" t="b">
@@ -1023,12 +1023,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ollama_gptoss_20b</t>
+          <t>ollama_llama3_1_70b</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>zeroshot</t>
+          <t>progressive_rectification</t>
         </is>
       </c>
       <c r="C40" t="b">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ollama_gptoss_20b</t>
+          <t>ollama_llama3_1_70b</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1053,12 +1053,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ollama_gptoss_20b</t>
+          <t>ollama_llama3_1_70b</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C42" t="b">
@@ -1068,12 +1068,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ollama_gptoss_20b</t>
+          <t>ollama_llama3_1_8b</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>hypothesis_testing</t>
         </is>
       </c>
       <c r="C43" t="b">
@@ -1083,12 +1083,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ollama_gptoss_20b</t>
+          <t>ollama_llama3_1_8b</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>hypothesis_testing</t>
+          <t>progressive_hint</t>
         </is>
       </c>
       <c r="C44" t="b">
@@ -1098,12 +1098,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ollama_granite3_2_8b</t>
+          <t>ollama_llama3_1_8b</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>self_hint</t>
+          <t>progressive_rectification</t>
         </is>
       </c>
       <c r="C45" t="b">
@@ -1113,12 +1113,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ollama_granite3_2_8b</t>
+          <t>ollama_llama3_1_8b</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>self_hint</t>
         </is>
       </c>
       <c r="C46" t="b">
@@ -1128,12 +1128,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ollama_granite3_2_8b</t>
+          <t>ollama_llama3_1_8b</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C47" t="b">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ollama_granite3_2_8b</t>
+          <t>ollama_llama3_3_70b</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1158,12 +1158,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ollama_llama3_1_70b</t>
+          <t>ollama_llama3_3_70b</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>zeroshot</t>
+          <t>progressive_hint</t>
         </is>
       </c>
       <c r="C49" t="b">
@@ -1173,12 +1173,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ollama_llama3_1_70b</t>
+          <t>ollama_llama3_3_70b</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>self_hint</t>
+          <t>progressive_rectification</t>
         </is>
       </c>
       <c r="C50" t="b">
@@ -1188,12 +1188,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ollama_llama3_1_70b</t>
+          <t>ollama_llama3_3_70b</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>self_hint</t>
         </is>
       </c>
       <c r="C51" t="b">
@@ -1203,12 +1203,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ollama_llama3_1_70b</t>
+          <t>ollama_llama3_3_70b</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C52" t="b">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ollama_llama3_1_70b</t>
+          <t>ollama_mistral_small_24b</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1233,12 +1233,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ollama_llama3_1_8b</t>
+          <t>ollama_mistral_small_24b</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>self_hint</t>
+          <t>progressive_hint</t>
         </is>
       </c>
       <c r="C54" t="b">
@@ -1248,12 +1248,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ollama_llama3_1_8b</t>
+          <t>ollama_mistral_small_24b</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>progressive_rectification</t>
         </is>
       </c>
       <c r="C55" t="b">
@@ -1263,12 +1263,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ollama_llama3_1_8b</t>
+          <t>ollama_mistral_small_24b</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>self_hint</t>
         </is>
       </c>
       <c r="C56" t="b">
@@ -1278,12 +1278,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ollama_llama3_1_8b</t>
+          <t>ollama_mistral_small_24b</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>hypothesis_testing</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C57" t="b">
@@ -1293,12 +1293,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ollama_llama3_3_70b</t>
+          <t>ollama_phi3_medium_14b</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>self_hint</t>
+          <t>hypothesis_testing</t>
         </is>
       </c>
       <c r="C58" t="b">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ollama_llama3_3_70b</t>
+          <t>ollama_phi3_medium_14b</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ollama_llama3_3_70b</t>
+          <t>ollama_phi3_medium_14b</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1338,12 +1338,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ollama_llama3_3_70b</t>
+          <t>ollama_phi3_medium_14b</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>hypothesis_testing</t>
+          <t>self_hint</t>
         </is>
       </c>
       <c r="C61" t="b">
@@ -1353,12 +1353,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ollama_mistral_7b</t>
+          <t>ollama_phi3_medium_14b</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>self_hint</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C62" t="b">
@@ -1368,12 +1368,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ollama_mistral_7b</t>
+          <t>ollama_phi3_small_7b</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>hypothesis_testing</t>
         </is>
       </c>
       <c r="C63" t="b">
@@ -1383,12 +1383,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ollama_mistral_7b</t>
+          <t>ollama_phi3_small_7b</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>progressive_hint</t>
         </is>
       </c>
       <c r="C64" t="b">
@@ -1398,12 +1398,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ollama_mistral_7b</t>
+          <t>ollama_phi3_small_7b</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>hypothesis_testing</t>
+          <t>progressive_rectification</t>
         </is>
       </c>
       <c r="C65" t="b">
@@ -1413,12 +1413,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ollama_mistral_small_24b</t>
+          <t>ollama_phi3_small_7b</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>zeroshot</t>
+          <t>self_hint</t>
         </is>
       </c>
       <c r="C66" t="b">
@@ -1428,12 +1428,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ollama_mistral_small_24b</t>
+          <t>ollama_phi3_small_7b</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>self_hint</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C67" t="b">
@@ -1443,12 +1443,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ollama_mistral_small_24b</t>
+          <t>ollama_qwen2_5_32b</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>hypothesis_testing</t>
         </is>
       </c>
       <c r="C68" t="b">
@@ -1458,12 +1458,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ollama_mistral_small_24b</t>
+          <t>ollama_qwen2_5_32b</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>progressive_hint</t>
         </is>
       </c>
       <c r="C69" t="b">
@@ -1473,12 +1473,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ollama_mistral_small_24b</t>
+          <t>ollama_qwen2_5_32b</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>hypothesis_testing</t>
+          <t>progressive_rectification</t>
         </is>
       </c>
       <c r="C70" t="b">
@@ -1488,12 +1488,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ollama_phi3_medium_14b</t>
+          <t>ollama_qwen2_5_32b</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>zeroshot</t>
+          <t>self_hint</t>
         </is>
       </c>
       <c r="C71" t="b">
@@ -1503,12 +1503,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ollama_phi3_medium_14b</t>
+          <t>ollama_qwen2_5_32b</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>self_hint</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C72" t="b">
@@ -1518,12 +1518,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ollama_phi3_medium_14b</t>
+          <t>ollama_qwen2_5_7b</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>hypothesis_testing</t>
         </is>
       </c>
       <c r="C73" t="b">
@@ -1533,12 +1533,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ollama_phi3_medium_14b</t>
+          <t>ollama_qwen2_5_7b</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>progressive_hint</t>
         </is>
       </c>
       <c r="C74" t="b">
@@ -1548,12 +1548,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ollama_phi3_medium_14b</t>
+          <t>ollama_qwen2_5_7b</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>hypothesis_testing</t>
+          <t>progressive_rectification</t>
         </is>
       </c>
       <c r="C75" t="b">
@@ -1563,12 +1563,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ollama_phi3_small_7b</t>
+          <t>ollama_qwen2_5_7b</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>zeroshot</t>
+          <t>self_hint</t>
         </is>
       </c>
       <c r="C76" t="b">
@@ -1578,12 +1578,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ollama_phi3_small_7b</t>
+          <t>ollama_qwen2_5_7b</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>self_hint</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C77" t="b">
@@ -1593,12 +1593,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ollama_phi3_small_7b</t>
+          <t>ollama_qwen3_8b</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>hypothesis_testing</t>
         </is>
       </c>
       <c r="C78" t="b">
@@ -1608,12 +1608,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ollama_phi3_small_7b</t>
+          <t>ollama_qwen3_8b</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>progressive_hint</t>
         </is>
       </c>
       <c r="C79" t="b">
@@ -1623,12 +1623,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ollama_phi3_small_7b</t>
+          <t>ollama_qwen3_8b</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>hypothesis_testing</t>
+          <t>progressive_rectification</t>
         </is>
       </c>
       <c r="C80" t="b">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ollama_phi4_14b</t>
+          <t>ollama_qwen3_8b</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1653,12 +1653,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ollama_phi4_14b</t>
+          <t>ollama_qwen3_8b</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C82" t="b">
@@ -1668,12 +1668,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ollama_phi4_14b</t>
+          <t>ollama_smollm2_1_7b</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>hypothesis_testing</t>
         </is>
       </c>
       <c r="C83" t="b">
@@ -1683,12 +1683,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ollama_phi4_14b</t>
+          <t>ollama_smollm2_1_7b</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>hypothesis_testing</t>
+          <t>progressive_hint</t>
         </is>
       </c>
       <c r="C84" t="b">
@@ -1698,12 +1698,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ollama_qwen2_5_32b</t>
+          <t>ollama_smollm2_1_7b</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>zeroshot</t>
+          <t>progressive_rectification</t>
         </is>
       </c>
       <c r="C85" t="b">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ollama_qwen2_5_32b</t>
+          <t>ollama_smollm2_1_7b</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1728,12 +1728,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ollama_qwen2_5_32b</t>
+          <t>ollama_smollm2_1_7b</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C87" t="b">
@@ -1743,12 +1743,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ollama_qwen2_5_32b</t>
+          <t>ollama_tinyllama_1_1b</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>progressive_rectification</t>
+          <t>hypothesis_testing</t>
         </is>
       </c>
       <c r="C88" t="b">
@@ -1758,12 +1758,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ollama_qwen2_5_32b</t>
+          <t>ollama_tinyllama_1_1b</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>hypothesis_testing</t>
+          <t>progressive_hint</t>
         </is>
       </c>
       <c r="C89" t="b">
@@ -1773,12 +1773,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ollama_qwen2_5_7b</t>
+          <t>ollama_tinyllama_1_1b</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>zeroshot</t>
+          <t>progressive_rectification</t>
         </is>
       </c>
       <c r="C90" t="b">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ollama_qwen2_5_7b</t>
+          <t>ollama_tinyllama_1_1b</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1803,345 +1803,15 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ollama_qwen2_5_7b</t>
+          <t>ollama_tinyllama_1_1b</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>progressive_hint</t>
+          <t>zeroshot</t>
         </is>
       </c>
       <c r="C92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>ollama_qwen2_5_7b</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>progressive_rectification</t>
-        </is>
-      </c>
-      <c r="C93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>ollama_qwen2_5_7b</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>hypothesis_testing</t>
-        </is>
-      </c>
-      <c r="C94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>ollama_qwen3_32b</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>zeroshot</t>
-        </is>
-      </c>
-      <c r="C95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>ollama_qwen3_32b</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>self_hint</t>
-        </is>
-      </c>
-      <c r="C96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>ollama_qwen3_32b</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>progressive_hint</t>
-        </is>
-      </c>
-      <c r="C97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>ollama_qwen3_32b</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>progressive_rectification</t>
-        </is>
-      </c>
-      <c r="C98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>ollama_qwen3_32b</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>hypothesis_testing</t>
-        </is>
-      </c>
-      <c r="C99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>ollama_qwen3_8b</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>zeroshot</t>
-        </is>
-      </c>
-      <c r="C100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>ollama_qwen3_8b</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>self_hint</t>
-        </is>
-      </c>
-      <c r="C101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>ollama_qwen3_8b</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>progressive_hint</t>
-        </is>
-      </c>
-      <c r="C102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>ollama_qwen3_8b</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>progressive_rectification</t>
-        </is>
-      </c>
-      <c r="C103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>ollama_qwen3_8b</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>hypothesis_testing</t>
-        </is>
-      </c>
-      <c r="C104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>ollama_smollm2_1_7b</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>zeroshot</t>
-        </is>
-      </c>
-      <c r="C105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>ollama_smollm2_1_7b</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>self_hint</t>
-        </is>
-      </c>
-      <c r="C106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>ollama_smollm2_1_7b</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>progressive_hint</t>
-        </is>
-      </c>
-      <c r="C107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>ollama_smollm2_1_7b</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>progressive_rectification</t>
-        </is>
-      </c>
-      <c r="C108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>ollama_smollm2_1_7b</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>hypothesis_testing</t>
-        </is>
-      </c>
-      <c r="C109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>ollama_tinyllama_1_1b</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>zeroshot</t>
-        </is>
-      </c>
-      <c r="C110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>ollama_tinyllama_1_1b</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>self_hint</t>
-        </is>
-      </c>
-      <c r="C111" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>ollama_tinyllama_1_1b</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>progressive_hint</t>
-        </is>
-      </c>
-      <c r="C112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>ollama_tinyllama_1_1b</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>progressive_rectification</t>
-        </is>
-      </c>
-      <c r="C113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>ollama_tinyllama_1_1b</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>hypothesis_testing</t>
-        </is>
-      </c>
-      <c r="C114" t="b">
         <v>0</v>
       </c>
     </row>
